--- a/cleaned/Manufacturing.xlsx
+++ b/cleaned/Manufacturing.xlsx
@@ -519,10 +519,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1990</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -556,10 +554,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1991</v>
       </c>
       <c r="B3" t="n">
         <v>31.7099990844727</v>
@@ -597,10 +593,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1992</v>
       </c>
       <c r="B4" t="n">
         <v>31.7099990844727</v>
@@ -638,10 +632,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1993</v>
       </c>
       <c r="B5" t="n">
         <v>31.6700000762939</v>
@@ -679,10 +671,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1994</v>
       </c>
       <c r="B6" t="n">
         <v>31.7199993133545</v>
@@ -720,10 +710,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1995</v>
       </c>
       <c r="B7" t="n">
         <v>31.2199993133545</v>
@@ -761,10 +749,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1996</v>
       </c>
       <c r="B8" t="n">
         <v>30.6100006103516</v>
@@ -806,10 +792,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B9" t="n">
         <v>30.3199996948242</v>
@@ -847,10 +831,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B10" t="n">
         <v>30.1299991607666</v>
@@ -892,10 +874,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B11" t="n">
         <v>29.7600002288818</v>
@@ -933,10 +913,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B12" t="n">
         <v>30.4699993133545</v>
@@ -980,10 +958,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B13" t="n">
         <v>29.5900001525879</v>
@@ -1023,10 +999,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B14" t="n">
         <v>29.9200000762939</v>
@@ -1070,10 +1044,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B15" t="n">
         <v>29.9500007629395</v>
@@ -1113,10 +1085,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B16" t="n">
         <v>30.6800003051758</v>
@@ -1160,10 +1130,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B17" t="n">
         <v>30.6499996185303</v>
@@ -1203,10 +1171,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B18" t="n">
         <v>31.1800003051758</v>
@@ -1252,10 +1218,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B19" t="n">
         <v>31.1499996185303</v>
@@ -1297,10 +1261,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B20" t="n">
         <v>31.6599998474121</v>
@@ -1346,10 +1308,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B21" t="n">
         <v>31.2700004577637</v>
@@ -1391,10 +1351,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B22" t="n">
         <v>31.1000003814697</v>
@@ -1440,10 +1398,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B23" t="n">
         <v>30.9699993133545</v>
@@ -1487,10 +1443,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B24" t="n">
         <v>30.9599990844727</v>
@@ -1532,10 +1486,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B25" t="n">
         <v>30.6299991607666</v>
@@ -1579,10 +1531,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B26" t="n">
         <v>30.5300006866455</v>
@@ -1624,10 +1574,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B27" t="n">
         <v>29.3400001525879</v>
@@ -1671,10 +1619,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B28" t="n">
         <v>29.1700000762939</v>
@@ -1716,10 +1662,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B29" t="n">
         <v>29.6000003814697</v>
@@ -1763,10 +1707,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B30" t="n">
         <v>30.0900001525879</v>
@@ -1808,10 +1750,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B31" t="n">
         <v>29.1700000762939</v>
@@ -1855,10 +1795,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -1896,10 +1834,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -2023,10 +1959,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1960</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -2054,10 +1988,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1961</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -2087,10 +2019,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1962</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -2120,10 +2050,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1963</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -2153,10 +2081,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1964</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -2186,10 +2112,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1965</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -2219,10 +2143,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1966</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -2252,10 +2174,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1967</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -2285,10 +2205,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1968</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -2318,10 +2236,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1969</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -2351,10 +2267,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1970</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -2388,10 +2302,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1971</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -2425,10 +2337,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1972</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -2462,10 +2372,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1973</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -2499,10 +2407,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1974</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -2536,10 +2442,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>1975</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -2573,10 +2477,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1976</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -2610,10 +2512,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>1977</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -2647,10 +2547,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1978</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -2684,10 +2582,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1979</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -2721,10 +2617,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1980</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -2758,10 +2652,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1981</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -2795,10 +2687,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1982</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -2832,10 +2722,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1983</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -2869,10 +2757,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1984</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -2906,10 +2792,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1985</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -2943,10 +2827,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1986</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -2980,10 +2862,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1987</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -3017,10 +2897,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1988</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -3054,10 +2932,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1989</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -3091,10 +2967,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1990</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -3128,10 +3002,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1991</v>
       </c>
       <c r="B33" t="n">
         <v>27.5</v>
@@ -3169,10 +3041,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1992</v>
       </c>
       <c r="B34" t="n">
         <v>27.2700004577637</v>
@@ -3210,10 +3080,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1993</v>
       </c>
       <c r="B35" t="n">
         <v>27.4099998474121</v>
@@ -3251,10 +3119,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1994</v>
       </c>
       <c r="B36" t="n">
         <v>27.7099990844727</v>
@@ -3292,10 +3158,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1995</v>
       </c>
       <c r="B37" t="n">
         <v>27.6100006103516</v>
@@ -3333,10 +3197,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>1996</v>
       </c>
       <c r="B38" t="n">
         <v>27.7199993133545</v>
@@ -3374,10 +3236,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B39" t="n">
         <v>27.8799991607666</v>
@@ -3415,10 +3275,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B40" t="n">
         <v>28.0400009155273</v>
@@ -3456,10 +3314,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B41" t="n">
         <v>27.0699996948242</v>
@@ -3497,10 +3353,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B42" t="n">
         <v>27.1499996185303</v>
@@ -3544,10 +3398,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B43" t="n">
         <v>27.1700000762939</v>
@@ -3591,10 +3443,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B44" t="n">
         <v>28.2000007629395</v>
@@ -3638,10 +3488,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B45" t="n">
         <v>27.2999992370605</v>
@@ -3685,10 +3533,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B46" t="n">
         <v>27.5</v>
@@ -3732,10 +3578,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B47" t="n">
         <v>27.9300003051758</v>
@@ -3779,10 +3623,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B48" t="n">
         <v>28.1000003814697</v>
@@ -3826,10 +3668,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B49" t="n">
         <v>28.9400005340576</v>
@@ -3873,10 +3713,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B50" t="n">
         <v>29.9500007629395</v>
@@ -3920,10 +3758,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B51" t="n">
         <v>29.3199996948242</v>
@@ -3969,10 +3805,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B52" t="n">
         <v>29.4799995422363</v>
@@ -4018,10 +3852,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B53" t="n">
         <v>29.5</v>
@@ -4067,10 +3899,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B54" t="n">
         <v>30.3700008392334</v>
@@ -4116,10 +3946,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B55" t="n">
         <v>30.5499992370605</v>
@@ -4165,10 +3993,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B56" t="n">
         <v>30.7399997711182</v>
@@ -4214,10 +4040,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B57" t="n">
         <v>29.7700004577637</v>
@@ -4261,10 +4085,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B58" t="n">
         <v>28.2000007629395</v>
@@ -4308,10 +4130,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B59" t="n">
         <v>27.7000007629395</v>
@@ -4355,10 +4175,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B60" t="n">
         <v>27.0900001525879</v>
@@ -4402,10 +4220,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B61" t="n">
         <v>26.9500007629395</v>
@@ -4449,10 +4265,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -4490,10 +4304,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -4617,10 +4429,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B2" t="n">
         <v>32.6699981689453</v>
@@ -4662,10 +4472,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B3" t="n">
         <v>32.8899993896484</v>
@@ -4707,10 +4515,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B4" t="n">
         <v>32.8899993896484</v>
@@ -4752,10 +4558,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B5" t="n">
         <v>33.2900009155273</v>
@@ -4799,10 +4603,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B6" t="n">
         <v>33.0900001525879</v>
@@ -4846,10 +4648,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B7" t="n">
         <v>33.3600006103516</v>
@@ -4893,10 +4693,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B8" t="n">
         <v>33.1100006103516</v>
@@ -4940,10 +4738,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B9" t="n">
         <v>33.2900009155273</v>
@@ -4987,10 +4783,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B10" t="n">
         <v>33.0499992370605</v>
@@ -5034,10 +4828,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B11" t="n">
         <v>32.3499984741211</v>
@@ -5081,10 +4873,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B12" t="n">
         <v>31.8500003814697</v>
@@ -5128,10 +4918,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B13" t="n">
         <v>31.8999996185303</v>
@@ -5175,10 +4963,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B14" t="n">
         <v>30.6399993896484</v>
@@ -5222,10 +5008,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B15" t="n">
         <v>30.6800003051758</v>
@@ -5269,10 +5053,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B16" t="n">
         <v>30.4599990844727</v>
@@ -5316,10 +5098,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B17" t="n">
         <v>30.8199996948242</v>
@@ -5363,10 +5143,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B18" t="n">
         <v>30.8400001525879</v>
@@ -5410,10 +5188,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B19" t="n">
         <v>30.6299991607666</v>
@@ -5457,10 +5233,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B20" t="n">
         <v>30.1599998474121</v>
@@ -5504,10 +5278,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B21" t="n">
         <v>29.7999992370605</v>
@@ -5551,10 +5323,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B22" t="n">
         <v>29.5400009155273</v>
@@ -5600,10 +5370,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B23" t="n">
         <v>29.6399993896484</v>
@@ -5745,10 +5513,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B2" t="n">
         <v>23.0200004577637</v>
@@ -5792,10 +5558,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B3" t="n">
         <v>24.4899997711182</v>
@@ -5839,10 +5603,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B4" t="n">
         <v>26.0599994659424</v>
@@ -5886,10 +5648,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B5" t="n">
         <v>27.7999992370605</v>
@@ -5933,10 +5693,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B6" t="n">
         <v>28.3999996185303</v>
@@ -5980,10 +5738,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B7" t="n">
         <v>29.25</v>
@@ -6027,10 +5783,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B8" t="n">
         <v>30.3600006103516</v>
@@ -6076,10 +5830,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B9" t="n">
         <v>31.3500003814697</v>
@@ -6125,10 +5877,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B10" t="n">
         <v>32.3199996948242</v>
@@ -6174,10 +5924,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B11" t="n">
         <v>32.310001373291</v>
@@ -6223,10 +5971,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B12" t="n">
         <v>32.3199996948242</v>
@@ -6272,10 +6018,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B13" t="n">
         <v>31.8099994659424</v>
@@ -6321,10 +6065,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B14" t="n">
         <v>31.6299991607666</v>
@@ -6370,10 +6112,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B15" t="n">
         <v>31.1599998474121</v>
@@ -6419,10 +6159,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B16" t="n">
         <v>31.5799999237061</v>
@@ -6468,10 +6206,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B17" t="n">
         <v>30.8299999237061</v>
@@ -6517,10 +6253,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
@@ -6562,10 +6296,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -6687,10 +6419,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1990</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -6724,10 +6454,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1991</v>
       </c>
       <c r="B3" t="n">
         <v>41.3400001525879</v>
@@ -6765,10 +6493,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1992</v>
       </c>
       <c r="B4" t="n">
         <v>41</v>
@@ -6806,10 +6532,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1993</v>
       </c>
       <c r="B5" t="n">
         <v>40.6599998474121</v>
@@ -6847,10 +6571,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1994</v>
       </c>
       <c r="B6" t="n">
         <v>38.939998626709</v>
@@ -6888,10 +6610,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1995</v>
       </c>
       <c r="B7" t="n">
         <v>38.4000015258789</v>
@@ -6929,10 +6649,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1996</v>
       </c>
       <c r="B8" t="n">
         <v>38.6599998474121</v>
@@ -6974,10 +6692,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B9" t="n">
         <v>38.1699981689453</v>
@@ -7019,10 +6735,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B10" t="n">
         <v>37.9099998474121</v>
@@ -7064,10 +6778,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B11" t="n">
         <v>36.8899993896484</v>
@@ -7109,10 +6821,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B12" t="n">
         <v>36.2200012207031</v>
@@ -7156,10 +6866,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B13" t="n">
         <v>35.7700004577637</v>
@@ -7203,10 +6911,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B14" t="n">
         <v>35.0400009155273</v>
@@ -7250,10 +6956,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B15" t="n">
         <v>34.4000015258789</v>
@@ -7297,10 +7001,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B16" t="n">
         <v>33.1199989318848</v>
@@ -7344,10 +7046,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B17" t="n">
         <v>33.1100006103516</v>
@@ -7391,10 +7091,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B18" t="n">
         <v>32.7999992370605</v>
@@ -7440,10 +7138,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B19" t="n">
         <v>32.9700012207031</v>
@@ -7489,10 +7185,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B20" t="n">
         <v>32.7099990844727</v>
@@ -7538,10 +7232,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B21" t="n">
         <v>29.9799995422363</v>
@@ -7587,10 +7279,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B22" t="n">
         <v>29.4500007629395</v>
@@ -7636,10 +7326,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B23" t="n">
         <v>29.2999992370605</v>
@@ -7685,10 +7373,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B24" t="n">
         <v>28.9400005340576</v>
@@ -7734,10 +7420,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B25" t="n">
         <v>28.6000003814697</v>
@@ -7783,10 +7467,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B26" t="n">
         <v>28.5699996948242</v>
@@ -7832,10 +7514,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B27" t="n">
         <v>28.2299995422363</v>
@@ -7881,10 +7561,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B28" t="n">
         <v>27.9599990844727</v>
@@ -7930,10 +7608,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B29" t="n">
         <v>27.5799999237061</v>
@@ -7979,10 +7655,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B30" t="n">
         <v>27.5300006866455</v>
@@ -8028,10 +7702,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B31" t="n">
         <v>27.3400001525879</v>
@@ -8077,10 +7749,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -8118,10 +7788,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="inlineStr"/>
@@ -8245,10 +7913,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1960</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -8276,10 +7942,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1961</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -8309,10 +7973,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1962</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -8342,10 +8004,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1963</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -8375,10 +8035,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1964</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -8408,10 +8066,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1965</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -8441,10 +8097,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1966</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -8474,10 +8128,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1967</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -8507,10 +8159,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1968</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -8540,10 +8190,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1969</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -8573,10 +8221,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1970</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -8610,10 +8256,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1971</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -8647,10 +8291,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1972</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -8684,10 +8326,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1973</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -8721,10 +8361,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1974</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -8758,10 +8396,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>1975</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -8795,10 +8431,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1976</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -8832,10 +8466,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>1977</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -8869,10 +8501,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1978</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -8906,10 +8536,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1979</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -8943,10 +8571,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1980</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -8980,10 +8606,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1981</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -9017,10 +8641,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1982</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -9054,10 +8676,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1983</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -9091,10 +8711,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1984</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -9128,10 +8746,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1985</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -9165,10 +8781,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1986</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -9202,10 +8816,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1987</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -9239,10 +8851,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1988</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -9276,10 +8886,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1989</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -9313,10 +8921,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1990</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -9350,10 +8956,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1991</v>
       </c>
       <c r="B33" t="n">
         <v>16.3899993896484</v>
@@ -9391,10 +8995,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1992</v>
       </c>
       <c r="B34" t="n">
         <v>16.4699993133545</v>
@@ -9432,10 +9034,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1993</v>
       </c>
       <c r="B35" t="n">
         <v>16.5100002288818</v>
@@ -9473,10 +9073,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1994</v>
       </c>
       <c r="B36" t="n">
         <v>16.7099990844727</v>
@@ -9514,10 +9112,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1995</v>
       </c>
       <c r="B37" t="n">
         <v>16.9400005340576</v>
@@ -9555,10 +9151,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>1996</v>
       </c>
       <c r="B38" t="n">
         <v>17.1599998474121</v>
@@ -9600,10 +9194,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B39" t="n">
         <v>17.2000007629395</v>
@@ -9643,10 +9235,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B40" t="n">
         <v>17.3600006103516</v>
@@ -9688,10 +9278,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B41" t="n">
         <v>17.7399997711182</v>
@@ -9731,10 +9319,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B42" t="n">
         <v>17.9300003051758</v>
@@ -9778,10 +9364,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B43" t="n">
         <v>18.2600002288818</v>
@@ -9823,10 +9407,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B44" t="n">
         <v>18.5599994659424</v>
@@ -9868,10 +9450,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B45" t="n">
         <v>19.1900005340576</v>
@@ -9913,10 +9493,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B46" t="n">
         <v>20.0599994659424</v>
@@ -9958,10 +9536,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B47" t="n">
         <v>20.6599998474121</v>
@@ -10005,10 +9581,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B48" t="n">
         <v>21.2999992370605</v>
@@ -10052,10 +9626,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B49" t="n">
         <v>22.0200004577637</v>
@@ -10099,10 +9671,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B50" t="n">
         <v>22.2999992370605</v>
@@ -10146,10 +9716,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B51" t="n">
         <v>22.9699993133545</v>
@@ -10193,10 +9761,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B52" t="n">
         <v>23.6800003051758</v>
@@ -10242,10 +9808,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B53" t="n">
         <v>24.7900009155273</v>
@@ -10289,10 +9853,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B54" t="n">
         <v>25.8600006103516</v>
@@ -10336,10 +9898,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B55" t="n">
         <v>25.9400005340576</v>
@@ -10383,10 +9943,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B56" t="n">
         <v>26.1000003814697</v>
@@ -10430,10 +9988,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B57" t="n">
         <v>26.25</v>
@@ -10479,10 +10035,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B58" t="n">
         <v>26.5300006866455</v>
@@ -10526,10 +10080,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B59" t="n">
         <v>26.7299995422363</v>
@@ -10573,10 +10125,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B60" t="n">
         <v>26.8899993896484</v>
@@ -10622,10 +10172,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B61" t="n">
         <v>27.0699996948242</v>
@@ -10667,10 +10215,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -10708,10 +10254,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -10835,10 +10379,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1994</v>
       </c>
       <c r="B2" t="n">
         <v>39.8400001525879</v>
@@ -10876,10 +10418,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1995</v>
       </c>
       <c r="B3" t="n">
         <v>39.4900016784668</v>
@@ -10917,10 +10457,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1996</v>
       </c>
       <c r="B4" t="n">
         <v>39.3400001525879</v>
@@ -10962,10 +10500,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B5" t="n">
         <v>39.3899993896484</v>
@@ -11007,10 +10543,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B6" t="n">
         <v>38.6599998474121</v>
@@ -11052,10 +10586,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B7" t="n">
         <v>38.4700012207031</v>
@@ -11097,10 +10629,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B8" t="n">
         <v>38.1199989318848</v>
@@ -11144,10 +10674,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B9" t="n">
         <v>37.5099983215332</v>
@@ -11191,10 +10719,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B10" t="n">
         <v>36.9199981689453</v>
@@ -11238,10 +10764,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B11" t="n">
         <v>36.2099990844727</v>
@@ -11285,10 +10809,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B12" t="n">
         <v>35.5499992370605</v>
@@ -11332,10 +10854,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B13" t="n">
         <v>35.25</v>
@@ -11379,10 +10899,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B14" t="n">
         <v>35.1199989318848</v>
@@ -11426,10 +10944,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B15" t="n">
         <v>34.9500007629395</v>
@@ -11475,10 +10991,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B16" t="n">
         <v>34.75</v>
@@ -11524,10 +11038,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B17" t="n">
         <v>33.9199981689453</v>
@@ -11573,10 +11085,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B18" t="n">
         <v>33.3300018310547</v>
@@ -11622,10 +11132,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B19" t="n">
         <v>33.1599998474121</v>
@@ -11671,10 +11179,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B20" t="n">
         <v>33.189998626709</v>
@@ -11720,10 +11226,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B21" t="n">
         <v>33.3199996948242</v>
@@ -11769,10 +11273,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B22" t="n">
         <v>33.0499992370605</v>
@@ -11818,10 +11320,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B23" t="n">
         <v>32.8800010681152</v>
@@ -11867,10 +11367,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B24" t="n">
         <v>32.7000007629395</v>
@@ -11916,10 +11414,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B25" t="n">
         <v>32.7299995422363</v>
@@ -11965,10 +11461,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B26" t="n">
         <v>32.5200004577637</v>
@@ -12014,10 +11508,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B27" t="n">
         <v>32.3600006103516</v>
@@ -12063,10 +11555,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
@@ -12204,10 +11694,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1960</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1960</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
@@ -12235,10 +11723,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1961</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1961</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
@@ -12268,10 +11754,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1962</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1962</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
@@ -12301,10 +11785,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>1963</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1963</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr"/>
@@ -12334,10 +11816,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>1964</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>1964</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr"/>
@@ -12367,10 +11847,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>1965</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>1965</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
@@ -12400,10 +11878,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>1966</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>1966</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -12433,10 +11909,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>1967</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>1967</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -12466,10 +11940,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>1968</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>1968</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
@@ -12499,10 +11971,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>1969</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>1969</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr"/>
@@ -12532,10 +12002,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>1970</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>1970</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr"/>
@@ -12569,10 +12037,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>1971</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>1971</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
@@ -12606,10 +12072,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>1972</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>1972</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="inlineStr"/>
@@ -12643,10 +12107,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>1973</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>1973</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
@@ -12680,10 +12142,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>1974</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>1974</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
@@ -12717,10 +12177,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>1975</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>1975</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr"/>
@@ -12754,10 +12212,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>1976</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>1976</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
@@ -12791,10 +12247,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>1977</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>1977</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
@@ -12828,10 +12282,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>1978</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>1978</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr"/>
@@ -12865,10 +12317,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>1979</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>1979</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
@@ -12902,10 +12352,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>1980</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>1980</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr"/>
@@ -12939,10 +12387,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>1981</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>1981</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr"/>
@@ -12976,10 +12422,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>1982</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>1982</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
@@ -13013,10 +12457,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>1983</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>1983</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
@@ -13050,10 +12492,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>1984</t>
-        </is>
+      <c r="A26" s="1" t="n">
+        <v>1984</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr"/>
@@ -13087,10 +12527,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>1985</t>
-        </is>
+      <c r="A27" s="1" t="n">
+        <v>1985</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr"/>
@@ -13124,10 +12562,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>1986</t>
-        </is>
+      <c r="A28" s="1" t="n">
+        <v>1986</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr"/>
@@ -13161,10 +12597,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>1987</t>
-        </is>
+      <c r="A29" s="1" t="n">
+        <v>1987</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="inlineStr"/>
@@ -13198,10 +12632,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>1988</t>
-        </is>
+      <c r="A30" s="1" t="n">
+        <v>1988</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="inlineStr"/>
@@ -13235,10 +12667,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>1989</t>
-        </is>
+      <c r="A31" s="1" t="n">
+        <v>1989</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr"/>
@@ -13272,10 +12702,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>1990</t>
-        </is>
+      <c r="A32" s="1" t="n">
+        <v>1990</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr"/>
@@ -13309,10 +12737,8 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>1991</t>
-        </is>
+      <c r="A33" s="1" t="n">
+        <v>1991</v>
       </c>
       <c r="B33" t="n">
         <v>36.560001373291</v>
@@ -13350,10 +12776,8 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>1992</t>
-        </is>
+      <c r="A34" s="1" t="n">
+        <v>1992</v>
       </c>
       <c r="B34" t="n">
         <v>36.189998626709</v>
@@ -13391,10 +12815,8 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>1993</t>
-        </is>
+      <c r="A35" s="1" t="n">
+        <v>1993</v>
       </c>
       <c r="B35" t="n">
         <v>36.0699996948242</v>
@@ -13432,10 +12854,8 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>1994</t>
-        </is>
+      <c r="A36" s="1" t="n">
+        <v>1994</v>
       </c>
       <c r="B36" t="n">
         <v>35.4199981689453</v>
@@ -13473,10 +12893,8 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>1995</t>
-        </is>
+      <c r="A37" s="1" t="n">
+        <v>1995</v>
       </c>
       <c r="B37" t="n">
         <v>34.6699981689453</v>
@@ -13514,10 +12932,8 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>1996</t>
-        </is>
+      <c r="A38" s="1" t="n">
+        <v>1996</v>
       </c>
       <c r="B38" t="n">
         <v>32.9300003051758</v>
@@ -13559,10 +12975,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A39" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B39" t="n">
         <v>33.3199996948242</v>
@@ -13604,10 +13018,8 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A40" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B40" t="n">
         <v>33.0299987792969</v>
@@ -13649,10 +13061,8 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A41" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B41" t="n">
         <v>32.3199996948242</v>
@@ -13694,10 +13104,8 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A42" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B42" t="n">
         <v>31.0900001525879</v>
@@ -13741,10 +13149,8 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A43" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B43" t="n">
         <v>30.0699996948242</v>
@@ -13788,10 +13194,8 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A44" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B44" t="n">
         <v>29.2700004577637</v>
@@ -13835,10 +13239,8 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A45" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B45" t="n">
         <v>29.3400001525879</v>
@@ -13882,10 +13284,8 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A46" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B46" t="n">
         <v>28.3500003814697</v>
@@ -13929,10 +13329,8 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A47" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B47" t="n">
         <v>26.2000007629395</v>
@@ -13976,10 +13374,8 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A48" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B48" t="n">
         <v>27.2399997711182</v>
@@ -14025,10 +13421,8 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A49" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B49" t="n">
         <v>27.4200000762939</v>
@@ -14074,10 +13468,8 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A50" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B50" t="n">
         <v>28.2000007629395</v>
@@ -14123,10 +13515,8 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A51" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B51" t="n">
         <v>27.7199993133545</v>
@@ -14172,10 +13562,8 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A52" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B52" t="n">
         <v>26.2199993133545</v>
@@ -14221,10 +13609,8 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A53" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B53" t="n">
         <v>25.1900005340576</v>
@@ -14270,10 +13656,8 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A54" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B54" t="n">
         <v>24.6299991607666</v>
@@ -14319,10 +13703,8 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A55" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B55" t="n">
         <v>23.5</v>
@@ -14368,10 +13750,8 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A56" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B56" t="n">
         <v>21.5100002288818</v>
@@ -14417,10 +13797,8 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A57" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B57" t="n">
         <v>21.0699996948242</v>
@@ -14466,10 +13844,8 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A58" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B58" t="n">
         <v>20.4400005340576</v>
@@ -14515,10 +13891,8 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A59" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B59" t="n">
         <v>19.8700008392334</v>
@@ -14564,10 +13938,8 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A60" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B60" t="n">
         <v>19.3400001525879</v>
@@ -14613,10 +13985,8 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A61" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B61" t="n">
         <v>18.8299999237061</v>
@@ -14662,10 +14032,8 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A62" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
@@ -14703,10 +14071,8 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="A63" s="1" t="n">
+        <v>2021</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="inlineStr"/>
@@ -14830,10 +14196,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>1997</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>1997</v>
       </c>
       <c r="B2" t="n">
         <v>34.7400016784668</v>
@@ -14875,10 +14239,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>1998</t>
-        </is>
+      <c r="A3" s="1" t="n">
+        <v>1998</v>
       </c>
       <c r="B3" t="n">
         <v>34.5800018310547</v>
@@ -14920,10 +14282,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>1999</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>1999</v>
       </c>
       <c r="B4" t="n">
         <v>34.4199981689453</v>
@@ -14965,10 +14325,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>2000</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>2000</v>
       </c>
       <c r="B5" t="n">
         <v>34.2299995422363</v>
@@ -15012,10 +14370,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2001</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>2001</v>
       </c>
       <c r="B6" t="n">
         <v>33.689998626709</v>
@@ -15059,10 +14415,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2002</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>2002</v>
       </c>
       <c r="B7" t="n">
         <v>32.7000007629395</v>
@@ -15106,10 +14460,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2003</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>2003</v>
       </c>
       <c r="B8" t="n">
         <v>32.4099998474121</v>
@@ -15153,10 +14505,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2004</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>2004</v>
       </c>
       <c r="B9" t="n">
         <v>32.4799995422363</v>
@@ -15200,10 +14550,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>2005</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>2005</v>
       </c>
       <c r="B10" t="n">
         <v>32.4099998474121</v>
@@ -15247,10 +14595,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>2006</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>2006</v>
       </c>
       <c r="B11" t="n">
         <v>32.7200012207031</v>
@@ -15294,10 +14640,8 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>2007</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>2007</v>
       </c>
       <c r="B12" t="n">
         <v>32.3800010681152</v>
@@ -15341,10 +14685,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>2008</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>2008</v>
       </c>
       <c r="B13" t="n">
         <v>31.6299991607666</v>
@@ -15388,10 +14730,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2009</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>2009</v>
       </c>
       <c r="B14" t="n">
         <v>29.9799995422363</v>
@@ -15435,10 +14775,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2010</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>2010</v>
       </c>
       <c r="B15" t="n">
         <v>29.4400005340576</v>
@@ -15482,10 +14820,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2011</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>2011</v>
       </c>
       <c r="B16" t="n">
         <v>29.2099990844727</v>
@@ -15529,10 +14865,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2012</t>
-        </is>
+      <c r="A17" s="1" t="n">
+        <v>2012</v>
       </c>
       <c r="B17" t="n">
         <v>29.1200008392334</v>
@@ -15576,10 +14910,8 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2013</t>
-        </is>
+      <c r="A18" s="1" t="n">
+        <v>2013</v>
       </c>
       <c r="B18" t="n">
         <v>29.4599990844727</v>
@@ -15623,10 +14955,8 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="A19" s="1" t="n">
+        <v>2014</v>
       </c>
       <c r="B19" t="n">
         <v>29.4599990844727</v>
@@ -15670,10 +15000,8 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="A20" s="1" t="n">
+        <v>2015</v>
       </c>
       <c r="B20" t="n">
         <v>29.2299995422363</v>
@@ -15717,10 +15045,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="A21" s="1" t="n">
+        <v>2016</v>
       </c>
       <c r="B21" t="n">
         <v>29.1900005340576</v>
@@ -15764,10 +15090,8 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="A22" s="1" t="n">
+        <v>2017</v>
       </c>
       <c r="B22" t="n">
         <v>29.1299991607666</v>
@@ -15811,10 +15135,8 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
+      <c r="A23" s="1" t="n">
+        <v>2018</v>
       </c>
       <c r="B23" t="n">
         <v>29.3600006103516</v>
@@ -15858,10 +15180,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>2019</t>
-        </is>
+      <c r="A24" s="1" t="n">
+        <v>2019</v>
       </c>
       <c r="B24" t="n">
         <v>29.3299999237061</v>
@@ -15905,10 +15225,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="A25" s="1" t="n">
+        <v>2020</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
